--- a/new original/_Lang_Chinese/Lang/CN/Game/List.xlsx
+++ b/new original/_Lang_Chinese/Lang/CN/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.252</t>
+    <t xml:space="preserve">EA 23.260</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>

--- a/new original/_Lang_Chinese/Lang/CN/Game/List.xlsx
+++ b/new original/_Lang_Chinese/Lang/CN/Game/List.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">_articlesToRemove</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.260</t>
+    <t xml:space="preserve">EA 23.267</t>
   </si>
   <si>
     <t xml:space="preserve">a ,an </t>
@@ -1217,10 +1217,10 @@
     <t xml:space="preserve">房屋</t>
   </si>
   <si>
-    <t xml:space="preserve">哥</t>
-  </si>
-  <si>
-    <t xml:space="preserve">姐</t>
+    <t xml:space="preserve">老哥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">老姐</t>
   </si>
   <si>
     <t xml:space="preserve">哥哥,哥哥♪,哥哥—,哥哥！,哥哥？,哥哥！？</t>
